--- a/docs/20200818-All Alerts-Output.xlsx
+++ b/docs/20200818-All Alerts-Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -50,811 +50,808 @@
     <t>SWING BUY</t>
   </si>
   <si>
-    <t>19-08-2020</t>
+    <t>18-08-2020</t>
   </si>
   <si>
     <t>ACC</t>
   </si>
   <si>
+    <t>09:30</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>00:29</t>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>09:45</t>
+  </si>
+  <si>
+    <t>ADANIENT</t>
+  </si>
+  <si>
+    <t>09:36</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>ADANIPORTS</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>AMARAJABAT</t>
+  </si>
+  <si>
+    <t>10:07</t>
   </si>
   <si>
     <t>AMBUJACEM</t>
   </si>
   <si>
-    <t>00:36</t>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>APOLLOHOSP</t>
+  </si>
+  <si>
+    <t>11:24</t>
+  </si>
+  <si>
+    <t>APOLLOTYRE</t>
+  </si>
+  <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>ASIANPAINT</t>
+  </si>
+  <si>
+    <t>10:12</t>
+  </si>
+  <si>
+    <t>AUROPHARMA</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>AXISBANK</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>BAJAJ-AUTO</t>
+  </si>
+  <si>
+    <t>15:23</t>
   </si>
   <si>
     <t>BAJAJFINSV</t>
   </si>
   <si>
-    <t>00:01</t>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>BAJFINANCE</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>11:13</t>
   </si>
   <si>
     <t>BALKRISIND</t>
   </si>
   <si>
-    <t>00:20</t>
+    <t>09:38</t>
   </si>
   <si>
     <t>BANDHANBNK</t>
   </si>
   <si>
-    <t>00:02</t>
+    <t>15:22</t>
+  </si>
+  <si>
+    <t>12:02</t>
   </si>
   <si>
     <t>BANKNIFTY</t>
   </si>
   <si>
-    <t>00:19</t>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>BATAINDIA</t>
+  </si>
+  <si>
+    <t>11:44</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>BERGEPAINT</t>
+  </si>
+  <si>
+    <t>09:35</t>
   </si>
   <si>
     <t>BHARATFORG</t>
   </si>
   <si>
-    <t>00:04</t>
+    <t>12:04</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>14:39</t>
   </si>
   <si>
     <t>BIOCON</t>
   </si>
   <si>
-    <t>00:26</t>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
+    <t>BOSCHLTD</t>
+  </si>
+  <si>
+    <t>11:34</t>
+  </si>
+  <si>
+    <t>11:32</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>BPCL</t>
+  </si>
+  <si>
+    <t>15:29</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>BRITANNIA</t>
+  </si>
+  <si>
+    <t>14:03</t>
+  </si>
+  <si>
+    <t>CADILAHC</t>
+  </si>
+  <si>
+    <t>CANBK</t>
+  </si>
+  <si>
+    <t>11:05</t>
+  </si>
+  <si>
+    <t>CENTURYTEX</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>CHOLAFIN</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>CIPLA</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>COALINDIA</t>
+  </si>
+  <si>
+    <t>09:57</t>
+  </si>
+  <si>
+    <t>09:49</t>
   </si>
   <si>
     <t>CONCOR</t>
   </si>
   <si>
-    <t>00:39</t>
-  </si>
-  <si>
-    <t>00:38</t>
+    <t>12:39</t>
+  </si>
+  <si>
+    <t>12:38</t>
+  </si>
+  <si>
+    <t>CUMMINSIND</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>14:53</t>
+  </si>
+  <si>
+    <t>DABUR</t>
+  </si>
+  <si>
+    <t>14:44</t>
+  </si>
+  <si>
+    <t>DIVISLAB</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>09:34</t>
   </si>
   <si>
     <t>DRREDDY</t>
   </si>
   <si>
-    <t>00:35</t>
+    <t>14:29</t>
+  </si>
+  <si>
+    <t>09:18</t>
   </si>
   <si>
     <t>EICHERMOT</t>
   </si>
   <si>
+    <t>09:39</t>
+  </si>
+  <si>
+    <t>EQUITAS</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>ESCORTS</t>
+  </si>
+  <si>
     <t>EXIDEIND</t>
   </si>
   <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>14:31</t>
+  </si>
+  <si>
+    <t>09:33</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
     <t>GMRINFRA</t>
   </si>
   <si>
-    <t>00:41</t>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>GODREJCP</t>
+  </si>
+  <si>
+    <t>15:03</t>
+  </si>
+  <si>
+    <t>GODREJPROP</t>
+  </si>
+  <si>
+    <t>GRASIM</t>
+  </si>
+  <si>
+    <t>HAVELLS</t>
+  </si>
+  <si>
+    <t>09:20</t>
+  </si>
+  <si>
+    <t>HCLTECH</t>
+  </si>
+  <si>
+    <t>11:58</t>
   </si>
   <si>
     <t>HDFC</t>
   </si>
   <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>12:29</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:04</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>HDFCLIFE</t>
+  </si>
+  <si>
+    <t>09:29</t>
+  </si>
+  <si>
     <t>HINDALCO</t>
   </si>
   <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>HINDPETRO</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>15:11</t>
+  </si>
+  <si>
+    <t>13:20</t>
+  </si>
+  <si>
+    <t>IBULHSGFIN</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>14:02</t>
+  </si>
+  <si>
+    <t>ICICIPRULI</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>15:12</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>INDUSINDBK</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>INFRATEL</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>JINDALSTEL</t>
+  </si>
+  <si>
+    <t>JSWSTEEL</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>JUBLFOOD</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>10:03</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>L&amp;TFH</t>
+  </si>
+  <si>
     <t>LICHSGFIN</t>
   </si>
   <si>
+    <t>15:24</t>
+  </si>
+  <si>
     <t>LT</t>
   </si>
   <si>
     <t>LUPIN</t>
   </si>
   <si>
+    <t>12:35</t>
+  </si>
+  <si>
     <t>M&amp;M</t>
   </si>
   <si>
-    <t>00:53</t>
+    <t>12:53</t>
+  </si>
+  <si>
+    <t>M&amp;MFIN</t>
+  </si>
+  <si>
+    <t>14:54</t>
+  </si>
+  <si>
+    <t>14:52</t>
+  </si>
+  <si>
+    <t>MANAPPURAM</t>
+  </si>
+  <si>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>MARUTI</t>
+  </si>
+  <si>
+    <t>09:42</t>
+  </si>
+  <si>
+    <t>MCDOWELL-N</t>
+  </si>
+  <si>
+    <t>09:24</t>
   </si>
   <si>
     <t>MFSL</t>
   </si>
   <si>
+    <t>09:53</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>MINDTREE</t>
+  </si>
+  <si>
+    <t>MOTHERSUMI</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>MUTHOOTFIN</t>
+  </si>
+  <si>
+    <t>NAUKRI</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>NESTLEIND</t>
+  </si>
+  <si>
+    <t>15:27</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>NIFTY</t>
   </si>
   <si>
+    <t>09:21</t>
+  </si>
+  <si>
+    <t>NIITTECH</t>
+  </si>
+  <si>
+    <t>11:48</t>
+  </si>
+  <si>
+    <t>NMDC</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>09:48</t>
+  </si>
+  <si>
+    <t>PAGEIND</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>10:49</t>
+  </si>
+  <si>
     <t>PEL</t>
   </si>
   <si>
     <t>PFC</t>
   </si>
   <si>
-    <t>00:30</t>
+    <t>12:30</t>
   </si>
   <si>
     <t>PIDILITIND</t>
   </si>
   <si>
-    <t>00:21</t>
+    <t>12:21</t>
+  </si>
+  <si>
+    <t>12:36</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
   </si>
   <si>
     <t>PVR</t>
   </si>
   <si>
-    <t>00:43</t>
-  </si>
-  <si>
-    <t>00:45</t>
+    <t>12:43</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>RAMCOCEM</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>RECLTD</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>14:48</t>
+  </si>
+  <si>
+    <t>SBILIFE</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>10:47</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>13:59</t>
+  </si>
+  <si>
+    <t>SHREECEM</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>SRF</t>
+  </si>
+  <si>
+    <t>09:22</t>
+  </si>
+  <si>
+    <t>13:33</t>
   </si>
   <si>
     <t>SRTRANSFIN</t>
   </si>
   <si>
-    <t>00:10</t>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>SUNPHARMA</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>SUNTV</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>13:22</t>
+  </si>
+  <si>
+    <t>TATACHEM</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>TATACONSUM</t>
+  </si>
+  <si>
+    <t>09:37</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>13:02</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>10:09</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>TORNTPHARM</t>
+  </si>
+  <si>
+    <t>TORNTPOWER</t>
+  </si>
+  <si>
+    <t>15:25</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>TVSMOTOR</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>09:41</t>
   </si>
   <si>
     <t>UBL</t>
   </si>
   <si>
-    <t>00:09</t>
+    <t>12:09</t>
+  </si>
+  <si>
+    <t>UJJIVAN</t>
+  </si>
+  <si>
+    <t>13:57</t>
+  </si>
+  <si>
+    <t>ULTRACEMCO</t>
+  </si>
+  <si>
+    <t>09:51</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>VOLTAS</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
   </si>
   <si>
     <t>ZEEL</t>
   </si>
   <si>
-    <t>00:55</t>
-  </si>
-  <si>
-    <t>18-08-2020</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>09:45</t>
-  </si>
-  <si>
-    <t>ADANIENT</t>
-  </si>
-  <si>
-    <t>09:36</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>ADANIPORTS</t>
-  </si>
-  <si>
-    <t>15:28</t>
-  </si>
-  <si>
-    <t>15:05</t>
-  </si>
-  <si>
-    <t>AMARAJABAT</t>
-  </si>
-  <si>
-    <t>10:07</t>
-  </si>
-  <si>
-    <t>09:44</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP</t>
-  </si>
-  <si>
-    <t>11:24</t>
-  </si>
-  <si>
-    <t>APOLLOTYRE</t>
-  </si>
-  <si>
-    <t>09:26</t>
-  </si>
-  <si>
-    <t>ASIANPAINT</t>
-  </si>
-  <si>
-    <t>10:12</t>
-  </si>
-  <si>
-    <t>AUROPHARMA</t>
-  </si>
-  <si>
-    <t>14:12</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>13:37</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO</t>
-  </si>
-  <si>
-    <t>15:23</t>
-  </si>
-  <si>
-    <t>13:49</t>
-  </si>
-  <si>
-    <t>13:47</t>
-  </si>
-  <si>
-    <t>BAJFINANCE</t>
-  </si>
-  <si>
-    <t>13:56</t>
-  </si>
-  <si>
-    <t>13:53</t>
-  </si>
-  <si>
-    <t>11:13</t>
-  </si>
-  <si>
-    <t>09:38</t>
-  </si>
-  <si>
-    <t>15:22</t>
-  </si>
-  <si>
-    <t>10:18</t>
-  </si>
-  <si>
-    <t>10:16</t>
-  </si>
-  <si>
-    <t>BATAINDIA</t>
-  </si>
-  <si>
-    <t>11:44</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>10:14</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>BERGEPAINT</t>
-  </si>
-  <si>
-    <t>09:35</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>15:10</t>
-  </si>
-  <si>
-    <t>14:57</t>
-  </si>
-  <si>
-    <t>14:39</t>
-  </si>
-  <si>
-    <t>15:15</t>
-  </si>
-  <si>
-    <t>13:59</t>
-  </si>
-  <si>
-    <t>BOSCHLTD</t>
-  </si>
-  <si>
-    <t>11:34</t>
-  </si>
-  <si>
-    <t>11:32</t>
-  </si>
-  <si>
-    <t>15:20</t>
-  </si>
-  <si>
-    <t>BPCL</t>
-  </si>
-  <si>
-    <t>15:29</t>
-  </si>
-  <si>
-    <t>09:40</t>
-  </si>
-  <si>
-    <t>BRITANNIA</t>
-  </si>
-  <si>
-    <t>14:03</t>
-  </si>
-  <si>
-    <t>CADILAHC</t>
-  </si>
-  <si>
-    <t>CANBK</t>
-  </si>
-  <si>
-    <t>11:05</t>
-  </si>
-  <si>
-    <t>CENTURYTEX</t>
-  </si>
-  <si>
-    <t>13:05</t>
-  </si>
-  <si>
-    <t>11:50</t>
-  </si>
-  <si>
-    <t>CHOLAFIN</t>
-  </si>
-  <si>
-    <t>10:59</t>
-  </si>
-  <si>
-    <t>CIPLA</t>
-  </si>
-  <si>
-    <t>11:15</t>
-  </si>
-  <si>
-    <t>COALINDIA</t>
-  </si>
-  <si>
-    <t>09:57</t>
-  </si>
-  <si>
-    <t>09:49</t>
-  </si>
-  <si>
-    <t>15:11</t>
-  </si>
-  <si>
-    <t>15:03</t>
-  </si>
-  <si>
-    <t>CUMMINSIND</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>14:53</t>
-  </si>
-  <si>
-    <t>DABUR</t>
-  </si>
-  <si>
-    <t>14:44</t>
-  </si>
-  <si>
-    <t>DIVISLAB</t>
-  </si>
-  <si>
-    <t>DLF</t>
-  </si>
-  <si>
-    <t>09:34</t>
-  </si>
-  <si>
-    <t>14:29</t>
-  </si>
-  <si>
-    <t>09:18</t>
-  </si>
-  <si>
-    <t>09:39</t>
-  </si>
-  <si>
-    <t>EQUITAS</t>
-  </si>
-  <si>
-    <t>14:05</t>
-  </si>
-  <si>
-    <t>ESCORTS</t>
-  </si>
-  <si>
-    <t>14:31</t>
-  </si>
-  <si>
-    <t>09:33</t>
-  </si>
-  <si>
-    <t>14:25</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>GODREJCP</t>
-  </si>
-  <si>
-    <t>GODREJPROP</t>
-  </si>
-  <si>
-    <t>GRASIM</t>
-  </si>
-  <si>
-    <t>HAVELLS</t>
-  </si>
-  <si>
-    <t>09:20</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>11:58</t>
-  </si>
-  <si>
-    <t>14:11</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:04</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>HDFCLIFE</t>
-  </si>
-  <si>
-    <t>09:29</t>
-  </si>
-  <si>
-    <t>HINDPETRO</t>
-  </si>
-  <si>
-    <t>15:13</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
-    <t>13:20</t>
-  </si>
-  <si>
-    <t>IBULHSGFIN</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>14:02</t>
-  </si>
-  <si>
-    <t>ICICIPRULI</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
-    <t>IGL</t>
-  </si>
-  <si>
-    <t>15:12</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>INDUSINDBK</t>
-  </si>
-  <si>
-    <t>14:01</t>
-  </si>
-  <si>
-    <t>13:15</t>
-  </si>
-  <si>
-    <t>INFRATEL</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>JINDALSTEL</t>
-  </si>
-  <si>
-    <t>JSWSTEEL</t>
-  </si>
-  <si>
-    <t>10:42</t>
-  </si>
-  <si>
-    <t>JUBLFOOD</t>
-  </si>
-  <si>
-    <t>09:23</t>
-  </si>
-  <si>
-    <t>10:03</t>
-  </si>
-  <si>
-    <t>KOTAKBANK</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>L&amp;TFH</t>
-  </si>
-  <si>
-    <t>15:24</t>
-  </si>
-  <si>
-    <t>M&amp;MFIN</t>
-  </si>
-  <si>
-    <t>14:54</t>
-  </si>
-  <si>
-    <t>14:52</t>
-  </si>
-  <si>
-    <t>MANAPPURAM</t>
-  </si>
-  <si>
-    <t>MARICO</t>
-  </si>
-  <si>
-    <t>09:27</t>
-  </si>
-  <si>
-    <t>MARUTI</t>
-  </si>
-  <si>
-    <t>09:42</t>
-  </si>
-  <si>
-    <t>MCDOWELL-N</t>
-  </si>
-  <si>
-    <t>09:24</t>
-  </si>
-  <si>
-    <t>09:53</t>
-  </si>
-  <si>
-    <t>09:50</t>
-  </si>
-  <si>
-    <t>10:32</t>
-  </si>
-  <si>
-    <t>MGL</t>
-  </si>
-  <si>
-    <t>MINDTREE</t>
-  </si>
-  <si>
-    <t>MOTHERSUMI</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>MUTHOOTFIN</t>
-  </si>
-  <si>
-    <t>NAUKRI</t>
-  </si>
-  <si>
-    <t>13:40</t>
-  </si>
-  <si>
-    <t>NESTLEIND</t>
-  </si>
-  <si>
-    <t>15:27</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>09:21</t>
-  </si>
-  <si>
-    <t>NIITTECH</t>
-  </si>
-  <si>
-    <t>11:48</t>
-  </si>
-  <si>
-    <t>NMDC</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>09:48</t>
-  </si>
-  <si>
-    <t>PAGEIND</t>
-  </si>
-  <si>
-    <t>09:55</t>
-  </si>
-  <si>
-    <t>10:49</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>RAMCOCEM</t>
-  </si>
-  <si>
-    <t>RBLBANK</t>
-  </si>
-  <si>
-    <t>11:10</t>
-  </si>
-  <si>
-    <t>RECLTD</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>14:48</t>
-  </si>
-  <si>
-    <t>SBILIFE</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>10:47</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>SRF</t>
-  </si>
-  <si>
-    <t>09:22</t>
-  </si>
-  <si>
-    <t>13:33</t>
-  </si>
-  <si>
-    <t>14:45</t>
-  </si>
-  <si>
-    <t>SUNPHARMA</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>SUNTV</t>
-  </si>
-  <si>
-    <t>13:23</t>
-  </si>
-  <si>
-    <t>13:22</t>
-  </si>
-  <si>
-    <t>TATACHEM</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>TATACONSUM</t>
-  </si>
-  <si>
-    <t>09:37</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>13:02</t>
-  </si>
-  <si>
-    <t>TATASTEEL</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>10:09</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>14:58</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>TORNTPHARM</t>
-  </si>
-  <si>
-    <t>TORNTPOWER</t>
-  </si>
-  <si>
-    <t>15:25</t>
-  </si>
-  <si>
-    <t>11:14</t>
-  </si>
-  <si>
-    <t>TVSMOTOR</t>
-  </si>
-  <si>
-    <t>11:55</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>UJJIVAN</t>
-  </si>
-  <si>
-    <t>13:57</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO</t>
-  </si>
-  <si>
-    <t>09:51</t>
-  </si>
-  <si>
-    <t>UPL</t>
-  </si>
-  <si>
-    <t>VEDL</t>
-  </si>
-  <si>
-    <t>VOLTAS</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>12:45</t>
   </si>
 </sst>
 </file>
@@ -899,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -968,31 +965,31 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1000,37 +997,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1038,37 +1035,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1076,37 +1073,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1114,37 +1111,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1152,37 +1149,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1190,37 +1187,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1228,37 +1225,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1266,37 +1263,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1304,37 +1301,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1342,37 +1339,37 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1380,37 +1377,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1418,37 +1415,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1456,37 +1453,37 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1494,37 +1491,37 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1532,37 +1529,37 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1570,37 +1567,37 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1608,37 +1605,37 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="L19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1646,37 +1643,37 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1684,37 +1681,37 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1722,37 +1719,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1760,37 +1757,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1798,37 +1795,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="L24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1836,37 +1833,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1874,37 +1871,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -1912,37 +1909,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1950,37 +1947,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1988,4711 +1985,3799 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="L35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="L42" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="K43" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="L43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="K45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="K53" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="K55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="K58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="K59" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="K60" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>71</v>
-      </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>135</v>
-      </c>
       <c r="K61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="L62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="K66" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L67" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J68" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="K68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="L70" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K71" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="L71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J72" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="K72" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="K73" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="K74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J75" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="L76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="K77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="K78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L79" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="L81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="K82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="K83" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="L83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
         <v>14</v>
       </c>
-      <c r="E84" t="s">
-        <v>164</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" t="s">
-        <v>174</v>
-      </c>
       <c r="K84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H85" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J85" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K85" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="L85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="F86" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="K86" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="L86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="G87" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="L87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J88" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="L88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K89" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="L89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="K90" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L90" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="K91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H92" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J92" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="K92" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="L92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="K93" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="L93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="K94" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="L94" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J95" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="K95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L95" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J97" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K97" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="L97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J98" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K98" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="L98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K99" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="L99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H100" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J100" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="K100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L100" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J102" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="K102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J103" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="K103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J104" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J105" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L105" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J106" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="K106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J107" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="K107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J108" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="K108" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="L108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K109" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="L109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J110" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="K110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E111" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J111" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="K111" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="L111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J112" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="K112" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="L112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J113" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="K113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J114" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="K114" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="L114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J115" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="K115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K116" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="L116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F117" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J117" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="K117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J118" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="K118" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K119" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J120" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="K120" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="L120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J121" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="K121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="J122" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="K122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="J123" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="K123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J124" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="K124" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H125" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K125" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="F126" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J126" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="K126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J127" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J128" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="K128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129" t="s">
-        <v>241</v>
-      </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" t="s">
-        <v>120</v>
-      </c>
-      <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" t="s">
-        <v>111</v>
-      </c>
-      <c r="K129" t="s">
-        <v>14</v>
-      </c>
-      <c r="L129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" t="s">
-        <v>242</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>65</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" t="s">
-        <v>65</v>
-      </c>
-      <c r="K130" t="s">
-        <v>14</v>
-      </c>
-      <c r="L130" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131" t="s">
-        <v>243</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" t="s">
-        <v>71</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>14</v>
-      </c>
-      <c r="K131" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>62</v>
-      </c>
-      <c r="B132" t="s">
-        <v>244</v>
-      </c>
-      <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>245</v>
-      </c>
-      <c r="F132" t="s">
-        <v>246</v>
-      </c>
-      <c r="G132" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" t="s">
-        <v>245</v>
-      </c>
-      <c r="K132" t="s">
-        <v>14</v>
-      </c>
-      <c r="L132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>62</v>
-      </c>
-      <c r="B133" t="s">
-        <v>56</v>
-      </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
-        <v>247</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" t="s">
-        <v>14</v>
-      </c>
-      <c r="I133" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" t="s">
-        <v>247</v>
-      </c>
-      <c r="K133" t="s">
-        <v>14</v>
-      </c>
-      <c r="L133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" t="s">
-        <v>248</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>249</v>
-      </c>
-      <c r="H134" t="s">
-        <v>71</v>
-      </c>
-      <c r="I134" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" t="s">
-        <v>14</v>
-      </c>
-      <c r="K134" t="s">
-        <v>249</v>
-      </c>
-      <c r="L134" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>62</v>
-      </c>
-      <c r="B135" t="s">
-        <v>250</v>
-      </c>
-      <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" t="s">
-        <v>251</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" t="s">
-        <v>14</v>
-      </c>
-      <c r="I135" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" t="s">
-        <v>252</v>
-      </c>
-      <c r="K135" t="s">
-        <v>14</v>
-      </c>
-      <c r="L135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>62</v>
-      </c>
-      <c r="B136" t="s">
-        <v>253</v>
-      </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>107</v>
-      </c>
-      <c r="E136" t="s">
-        <v>254</v>
-      </c>
-      <c r="F136" t="s">
-        <v>254</v>
-      </c>
-      <c r="G136" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" t="s">
-        <v>71</v>
-      </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>254</v>
-      </c>
-      <c r="K136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>62</v>
-      </c>
-      <c r="B137" t="s">
-        <v>255</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>118</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>14</v>
-      </c>
-      <c r="H137" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" t="s">
-        <v>256</v>
-      </c>
-      <c r="K137" t="s">
-        <v>14</v>
-      </c>
-      <c r="L137" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" t="s">
-        <v>257</v>
-      </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>125</v>
-      </c>
-      <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" t="s">
-        <v>71</v>
-      </c>
-      <c r="I138" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" t="s">
-        <v>258</v>
-      </c>
-      <c r="K138" t="s">
-        <v>14</v>
-      </c>
-      <c r="L138" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" t="s">
-        <v>259</v>
-      </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" t="s">
-        <v>148</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" t="s">
-        <v>14</v>
-      </c>
-      <c r="I139" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" t="s">
-        <v>99</v>
-      </c>
-      <c r="K139" t="s">
-        <v>14</v>
-      </c>
-      <c r="L139" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>62</v>
-      </c>
-      <c r="B140" t="s">
-        <v>260</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>261</v>
-      </c>
-      <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" t="s">
-        <v>14</v>
-      </c>
-      <c r="I140" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" t="s">
-        <v>261</v>
-      </c>
-      <c r="K140" t="s">
-        <v>14</v>
-      </c>
-      <c r="L140" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>62</v>
-      </c>
-      <c r="B141" t="s">
-        <v>262</v>
-      </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>178</v>
-      </c>
-      <c r="H141" t="s">
-        <v>71</v>
-      </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>14</v>
-      </c>
-      <c r="K141" t="s">
-        <v>263</v>
-      </c>
-      <c r="L141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>62</v>
-      </c>
-      <c r="B142" t="s">
-        <v>264</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>202</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" t="s">
-        <v>146</v>
-      </c>
-      <c r="K142" t="s">
-        <v>14</v>
-      </c>
-      <c r="L142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>62</v>
-      </c>
-      <c r="B143" t="s">
-        <v>265</v>
-      </c>
-      <c r="C143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" t="s">
-        <v>107</v>
-      </c>
-      <c r="E143" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" t="s">
-        <v>71</v>
-      </c>
-      <c r="I143" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" t="s">
-        <v>14</v>
-      </c>
-      <c r="K143" t="s">
-        <v>230</v>
-      </c>
-      <c r="L143" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" t="s">
-        <v>266</v>
-      </c>
-      <c r="C144" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>267</v>
-      </c>
-      <c r="H144" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" t="s">
-        <v>14</v>
-      </c>
-      <c r="K144" t="s">
-        <v>268</v>
-      </c>
-      <c r="L144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>62</v>
-      </c>
-      <c r="B145" t="s">
-        <v>269</v>
-      </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>270</v>
-      </c>
-      <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>271</v>
-      </c>
-      <c r="H145" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" t="s">
-        <v>220</v>
-      </c>
-      <c r="K145" t="s">
-        <v>271</v>
-      </c>
-      <c r="L145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>62</v>
-      </c>
-      <c r="B146" t="s">
-        <v>58</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
-        <v>245</v>
-      </c>
-      <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>245</v>
-      </c>
-      <c r="K146" t="s">
-        <v>14</v>
-      </c>
-      <c r="L146" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>62</v>
-      </c>
-      <c r="B147" t="s">
-        <v>272</v>
-      </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
-        <v>111</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" t="s">
-        <v>273</v>
-      </c>
-      <c r="K147" t="s">
-        <v>14</v>
-      </c>
-      <c r="L147" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>62</v>
-      </c>
-      <c r="B148" t="s">
-        <v>274</v>
-      </c>
-      <c r="C148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>275</v>
-      </c>
-      <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" t="s">
-        <v>14</v>
-      </c>
-      <c r="I148" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" t="s">
-        <v>133</v>
-      </c>
-      <c r="K148" t="s">
-        <v>14</v>
-      </c>
-      <c r="L148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>62</v>
-      </c>
-      <c r="B149" t="s">
-        <v>276</v>
-      </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>133</v>
-      </c>
-      <c r="F149" t="s">
-        <v>204</v>
-      </c>
-      <c r="G149" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" t="s">
-        <v>225</v>
-      </c>
-      <c r="K149" t="s">
-        <v>14</v>
-      </c>
-      <c r="L149" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>62</v>
-      </c>
-      <c r="B150" t="s">
-        <v>277</v>
-      </c>
-      <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>187</v>
-      </c>
-      <c r="H150" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" t="s">
-        <v>107</v>
-      </c>
-      <c r="J150" t="s">
-        <v>14</v>
-      </c>
-      <c r="K150" t="s">
-        <v>187</v>
-      </c>
-      <c r="L150" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>62</v>
-      </c>
-      <c r="B151" t="s">
-        <v>278</v>
-      </c>
-      <c r="C151" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
-        <v>279</v>
-      </c>
-      <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>14</v>
-      </c>
-      <c r="H151" t="s">
-        <v>14</v>
-      </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>279</v>
-      </c>
-      <c r="K151" t="s">
-        <v>14</v>
-      </c>
-      <c r="L151" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>62</v>
-      </c>
-      <c r="B152" t="s">
-        <v>280</v>
-      </c>
-      <c r="C152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
-        <v>65</v>
-      </c>
-      <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>14</v>
-      </c>
-      <c r="H152" t="s">
-        <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" t="s">
-        <v>64</v>
-      </c>
-      <c r="K152" t="s">
-        <v>14</v>
-      </c>
-      <c r="L152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/20200818-All Alerts-Output.xlsx
+++ b/docs/20200818-All Alerts-Output.xlsx
@@ -20,12 +20,12 @@
     <t>Stock Name</t>
   </si>
   <si>
+    <t>3 BAR LONG</t>
+  </si>
+  <si>
     <t>INSIDE DAY</t>
   </si>
   <si>
-    <t>3 BAR LONG</t>
-  </si>
-  <si>
     <t>INTRADAY BUY</t>
   </si>
   <si>
@@ -41,10 +41,10 @@
     <t>ACC</t>
   </si>
   <si>
+    <t>09:30</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>09:30</t>
   </si>
   <si>
     <t>09:43</t>
@@ -694,8 +694,8 @@
   <cols>
     <col min="1" max="1" width="12.4375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.8046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.16796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.3359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="30.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="29.41796875" customWidth="true" bestFit="true"/>
@@ -744,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -767,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -778,19 +778,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -801,19 +801,19 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -824,19 +824,19 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -847,19 +847,19 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -870,19 +870,19 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -893,19 +893,19 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -916,10 +916,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -928,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -939,19 +939,19 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -962,19 +962,19 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -985,19 +985,19 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1008,19 +1008,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1031,19 +1031,19 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1054,19 +1054,19 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1077,10 +1077,10 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -1089,7 +1089,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1100,19 +1100,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1123,19 +1123,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1146,19 +1146,19 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1192,19 +1192,19 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1215,19 +1215,19 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1238,19 +1238,19 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1261,19 +1261,19 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1284,19 +1284,19 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1330,19 +1330,19 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
         <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1353,19 +1353,19 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1376,19 +1376,19 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1399,19 +1399,19 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1422,19 +1422,19 @@
         <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1445,19 +1445,19 @@
         <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1468,19 +1468,19 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1491,19 +1491,19 @@
         <v>69</v>
       </c>
       <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
         <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
       </c>
       <c r="E35" t="s">
         <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1514,19 +1514,19 @@
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1537,19 +1537,19 @@
         <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1560,19 +1560,19 @@
         <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1583,19 +1583,19 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1606,19 +1606,19 @@
         <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
         <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1629,19 +1629,19 @@
         <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1652,10 +1652,10 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>80</v>
@@ -1664,7 +1664,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1675,19 +1675,19 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1698,19 +1698,19 @@
         <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1721,19 +1721,19 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1744,10 +1744,10 @@
         <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
@@ -1756,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1767,19 +1767,19 @@
         <v>88</v>
       </c>
       <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1790,10 +1790,10 @@
         <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>90</v>
@@ -1802,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1813,19 +1813,19 @@
         <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1836,19 +1836,19 @@
         <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
         <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1859,19 +1859,19 @@
         <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1882,19 +1882,19 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
         <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1905,19 +1905,19 @@
         <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -1928,19 +1928,19 @@
         <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1951,19 +1951,19 @@
         <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1974,19 +1974,19 @@
         <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -1997,19 +1997,19 @@
         <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2020,19 +2020,19 @@
         <v>106</v>
       </c>
       <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
         <v>48</v>
       </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -2043,19 +2043,19 @@
         <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
         <v>108</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -2066,19 +2066,19 @@
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -2089,19 +2089,19 @@
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -2112,19 +2112,19 @@
         <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
         <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -2135,19 +2135,19 @@
         <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>73</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -2158,19 +2158,19 @@
         <v>114</v>
       </c>
       <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
         <v>48</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
       </c>
       <c r="E64" t="s">
         <v>103</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -2181,19 +2181,19 @@
         <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -2204,19 +2204,19 @@
         <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
         <v>118</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -2227,10 +2227,10 @@
         <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>120</v>
@@ -2239,7 +2239,7 @@
         <v>121</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -2250,19 +2250,19 @@
         <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
         <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -2273,19 +2273,19 @@
         <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>124</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -2296,19 +2296,19 @@
         <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -2319,19 +2319,19 @@
         <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -2342,19 +2342,19 @@
         <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -2365,19 +2365,19 @@
         <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -2388,19 +2388,19 @@
         <v>130</v>
       </c>
       <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
         <v>48</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
       </c>
       <c r="E74" t="s">
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2411,19 +2411,19 @@
         <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -2434,19 +2434,19 @@
         <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>134</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -2457,19 +2457,19 @@
         <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
         <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -2480,19 +2480,19 @@
         <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
         <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -2503,19 +2503,19 @@
         <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D79" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
         <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -2526,19 +2526,19 @@
         <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
         <v>136</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -2549,19 +2549,19 @@
         <v>142</v>
       </c>
       <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
         <v>48</v>
       </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -2572,19 +2572,19 @@
         <v>143</v>
       </c>
       <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
         <v>48</v>
       </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -2595,19 +2595,19 @@
         <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2618,19 +2618,19 @@
         <v>145</v>
       </c>
       <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2641,19 +2641,19 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -2664,19 +2664,19 @@
         <v>147</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
         <v>148</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -2687,19 +2687,19 @@
         <v>149</v>
       </c>
       <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
         <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
       </c>
       <c r="F87" t="s">
         <v>150</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -2710,19 +2710,19 @@
         <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -2733,19 +2733,19 @@
         <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2756,19 +2756,19 @@
         <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2779,10 +2779,10 @@
         <v>154</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
         <v>138</v>
@@ -2791,7 +2791,7 @@
         <v>155</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -2802,19 +2802,19 @@
         <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
         <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -2825,19 +2825,19 @@
         <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -2848,19 +2848,19 @@
         <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -2871,10 +2871,10 @@
         <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
         <v>80</v>
@@ -2883,7 +2883,7 @@
         <v>160</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -2894,19 +2894,19 @@
         <v>161</v>
       </c>
       <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
         <v>48</v>
       </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -2917,19 +2917,19 @@
         <v>162</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
         <v>163</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -2940,19 +2940,19 @@
         <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2963,19 +2963,19 @@
         <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -2986,19 +2986,19 @@
         <v>166</v>
       </c>
       <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
         <v>48</v>
       </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -3009,10 +3009,10 @@
         <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
         <v>90</v>
@@ -3021,7 +3021,7 @@
         <v>90</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -3032,19 +3032,19 @@
         <v>168</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>169</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -3055,19 +3055,19 @@
         <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
         <v>171</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -3078,19 +3078,19 @@
         <v>172</v>
       </c>
       <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
         <v>48</v>
-      </c>
-      <c r="D104" t="s">
-        <v>9</v>
       </c>
       <c r="E104" t="s">
         <v>112</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -3101,19 +3101,19 @@
         <v>173</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -3124,19 +3124,19 @@
         <v>174</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -3147,10 +3147,10 @@
         <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
         <v>176</v>
@@ -3159,7 +3159,7 @@
         <v>177</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -3170,19 +3170,19 @@
         <v>178</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
         <v>179</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
@@ -3193,19 +3193,19 @@
         <v>180</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -3216,19 +3216,19 @@
         <v>181</v>
       </c>
       <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
         <v>48</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
       </c>
       <c r="E110" t="s">
         <v>182</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -3239,10 +3239,10 @@
         <v>183</v>
       </c>
       <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
         <v>48</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
       </c>
       <c r="E111" t="s">
         <v>184</v>
@@ -3251,7 +3251,7 @@
         <v>184</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
@@ -3262,19 +3262,19 @@
         <v>185</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
         <v>63</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -3285,19 +3285,19 @@
         <v>186</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
         <v>60</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
@@ -3308,19 +3308,19 @@
         <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
         <v>77</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -3331,19 +3331,19 @@
         <v>188</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
         <v>189</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -3354,19 +3354,19 @@
         <v>190</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -3377,19 +3377,19 @@
         <v>191</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
         <v>136</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -3400,19 +3400,19 @@
         <v>192</v>
       </c>
       <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
         <v>48</v>
       </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -3423,19 +3423,19 @@
         <v>193</v>
       </c>
       <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
         <v>48</v>
       </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -3446,19 +3446,19 @@
         <v>194</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
         <v>195</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -3469,10 +3469,10 @@
         <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
         <v>176</v>
@@ -3481,7 +3481,7 @@
         <v>197</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -3492,19 +3492,19 @@
         <v>198</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
         <v>199</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
@@ -3515,19 +3515,19 @@
         <v>200</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
         <v>201</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
@@ -3538,10 +3538,10 @@
         <v>202</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
         <v>203</v>
@@ -3550,7 +3550,7 @@
         <v>138</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -3561,19 +3561,19 @@
         <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -3584,19 +3584,19 @@
         <v>205</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
         <v>206</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -3607,19 +3607,19 @@
         <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -3630,19 +3630,19 @@
         <v>208</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
         <v>209</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/20200818-All Alerts-Output.xlsx
+++ b/docs/20200818-All Alerts-Output.xlsx
@@ -698,7 +698,7 @@
     <col min="4" max="4" width="11.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.3359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="30.9140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.41796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/20200818-All Alerts-Output.xlsx
+++ b/docs/20200818-All Alerts-Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="275">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,18 @@
     <t>INTRADAY SHORTS	NR7 CANDLE</t>
   </si>
   <si>
+    <t>OUTSIDE DAY</t>
+  </si>
+  <si>
+    <t>SK BD_ORB_INTRADAY_LONGS_TESTING</t>
+  </si>
+  <si>
+    <t>SK DB INT SHORTS</t>
+  </si>
+  <si>
+    <t>SWING BUY</t>
+  </si>
+  <si>
     <t>18-08-2020</t>
   </si>
   <si>
@@ -83,9 +95,15 @@
     <t>APOLLOHOSP</t>
   </si>
   <si>
+    <t>11:24</t>
+  </si>
+  <si>
     <t>APOLLOTYRE</t>
   </si>
   <si>
+    <t>09:26</t>
+  </si>
+  <si>
     <t>ASIANPAINT</t>
   </si>
   <si>
@@ -104,27 +122,51 @@
     <t>14:10</t>
   </si>
   <si>
+    <t>13:37</t>
+  </si>
+  <si>
     <t>BAJAJ-AUTO</t>
   </si>
   <si>
+    <t>15:23</t>
+  </si>
+  <si>
     <t>BAJAJFINSV</t>
   </si>
   <si>
     <t>13:49</t>
   </si>
   <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
     <t>BAJFINANCE</t>
   </si>
   <si>
     <t>13:56</t>
   </si>
   <si>
+    <t>13:53</t>
+  </si>
+  <si>
+    <t>11:13</t>
+  </si>
+  <si>
     <t>BALKRISIND</t>
   </si>
   <si>
+    <t>09:38</t>
+  </si>
+  <si>
     <t>BANDHANBNK</t>
   </si>
   <si>
+    <t>12:02</t>
+  </si>
+  <si>
     <t>BANKNIFTY</t>
   </si>
   <si>
@@ -146,15 +188,24 @@
     <t>10:45</t>
   </si>
   <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
     <t>BERGEPAINT</t>
   </si>
   <si>
-    <t>09:38</t>
+    <t>09:35</t>
   </si>
   <si>
     <t>BHARATFORG</t>
   </si>
   <si>
+    <t>12:04</t>
+  </si>
+  <si>
     <t>BHARTIARTL</t>
   </si>
   <si>
@@ -164,24 +215,42 @@
     <t>14:57</t>
   </si>
   <si>
+    <t>14:39</t>
+  </si>
+  <si>
     <t>BIOCON</t>
   </si>
   <si>
     <t>15:15</t>
   </si>
   <si>
+    <t>12:26</t>
+  </si>
+  <si>
     <t>BOSCHLTD</t>
   </si>
   <si>
     <t>11:34</t>
   </si>
   <si>
+    <t>11:32</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
     <t>BPCL</t>
   </si>
   <si>
+    <t>09:40</t>
+  </si>
+  <si>
     <t>BRITANNIA</t>
   </si>
   <si>
+    <t>14:03</t>
+  </si>
+  <si>
     <t>CADILAHC</t>
   </si>
   <si>
@@ -197,13 +266,19 @@
     <t>13:05</t>
   </si>
   <si>
+    <t>11:50</t>
+  </si>
+  <si>
     <t>CHOLAFIN</t>
   </si>
   <si>
+    <t>10:59</t>
+  </si>
+  <si>
     <t>CIPLA</t>
   </si>
   <si>
-    <t>09:40</t>
+    <t>11:15</t>
   </si>
   <si>
     <t>COALINDIA</t>
@@ -212,15 +287,24 @@
     <t>09:57</t>
   </si>
   <si>
+    <t>09:49</t>
+  </si>
+  <si>
     <t>CONCOR</t>
   </si>
   <si>
     <t>12:39</t>
   </si>
   <si>
+    <t>12:38</t>
+  </si>
+  <si>
     <t>CUMMINSIND</t>
   </si>
   <si>
+    <t>14:53</t>
+  </si>
+  <si>
     <t>DABUR</t>
   </si>
   <si>
@@ -239,9 +323,15 @@
     <t>DRREDDY</t>
   </si>
   <si>
+    <t>09:18</t>
+  </si>
+  <si>
     <t>EICHERMOT</t>
   </si>
   <si>
+    <t>09:39</t>
+  </si>
+  <si>
     <t>EQUITAS</t>
   </si>
   <si>
@@ -260,6 +350,12 @@
     <t>14:31</t>
   </si>
   <si>
+    <t>09:33</t>
+  </si>
+  <si>
+    <t>14:25</t>
+  </si>
+  <si>
     <t>GLENMARK</t>
   </si>
   <si>
@@ -275,6 +371,9 @@
     <t>15:05</t>
   </si>
   <si>
+    <t>15:03</t>
+  </si>
+  <si>
     <t>GODREJPROP</t>
   </si>
   <si>
@@ -290,12 +389,18 @@
     <t>HCLTECH</t>
   </si>
   <si>
+    <t>11:58</t>
+  </si>
+  <si>
     <t>HDFC</t>
   </si>
   <si>
     <t>14:11</t>
   </si>
   <si>
+    <t>12:29</t>
+  </si>
+  <si>
     <t>HDFCBANK</t>
   </si>
   <si>
@@ -305,6 +410,9 @@
     <t>14:04</t>
   </si>
   <si>
+    <t>13:10</t>
+  </si>
+  <si>
     <t>HDFCLIFE</t>
   </si>
   <si>
@@ -314,7 +422,7 @@
     <t>HINDALCO</t>
   </si>
   <si>
-    <t>13:10</t>
+    <t>12:20</t>
   </si>
   <si>
     <t>HINDPETRO</t>
@@ -326,31 +434,40 @@
     <t>15:11</t>
   </si>
   <si>
+    <t>13:20</t>
+  </si>
+  <si>
     <t>IBULHSGFIN</t>
   </si>
   <si>
     <t>ICICIBANK</t>
   </si>
   <si>
+    <t>14:02</t>
+  </si>
+  <si>
     <t>ICICIPRULI</t>
   </si>
   <si>
     <t>IDFCFIRSTB</t>
   </si>
   <si>
-    <t>14:53</t>
-  </si>
-  <si>
     <t>IGL</t>
   </si>
   <si>
+    <t>15:12</t>
+  </si>
+  <si>
     <t>INDIGO</t>
   </si>
   <si>
     <t>INDUSINDBK</t>
   </si>
   <si>
-    <t>14:03</t>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>13:15</t>
   </si>
   <si>
     <t>INFRATEL</t>
@@ -368,7 +485,7 @@
     <t>JSWSTEEL</t>
   </si>
   <si>
-    <t>14:02</t>
+    <t>10:42</t>
   </si>
   <si>
     <t>JUBLFOOD</t>
@@ -377,12 +494,15 @@
     <t>09:23</t>
   </si>
   <si>
-    <t>09:35</t>
+    <t>10:03</t>
   </si>
   <si>
     <t>KOTAKBANK</t>
   </si>
   <si>
+    <t>13:35</t>
+  </si>
+  <si>
     <t>L&amp;TFH</t>
   </si>
   <si>
@@ -401,15 +521,24 @@
     <t>LUPIN</t>
   </si>
   <si>
+    <t>12:35</t>
+  </si>
+  <si>
     <t>M&amp;M</t>
   </si>
   <si>
+    <t>12:53</t>
+  </si>
+  <si>
     <t>M&amp;MFIN</t>
   </si>
   <si>
     <t>14:54</t>
   </si>
   <si>
+    <t>14:52</t>
+  </si>
+  <si>
     <t>MANAPPURAM</t>
   </si>
   <si>
@@ -437,6 +566,12 @@
     <t>09:53</t>
   </si>
   <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
     <t>MGL</t>
   </si>
   <si>
@@ -455,12 +590,18 @@
     <t>NAUKRI</t>
   </si>
   <si>
+    <t>13:40</t>
+  </si>
+  <si>
     <t>NESTLEIND</t>
   </si>
   <si>
     <t>15:27</t>
   </si>
   <si>
+    <t>10:30</t>
+  </si>
+  <si>
     <t>NIFTY</t>
   </si>
   <si>
@@ -470,9 +611,15 @@
     <t>NIITTECH</t>
   </si>
   <si>
+    <t>11:48</t>
+  </si>
+  <si>
     <t>NMDC</t>
   </si>
   <si>
+    <t>10:20</t>
+  </si>
+  <si>
     <t>NTPC</t>
   </si>
   <si>
@@ -485,18 +632,30 @@
     <t>PAGEIND</t>
   </si>
   <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>10:49</t>
+  </si>
+  <si>
     <t>PEL</t>
   </si>
   <si>
     <t>PFC</t>
   </si>
   <si>
+    <t>12:30</t>
+  </si>
+  <si>
     <t>PIDILITIND</t>
   </si>
   <si>
     <t>12:21</t>
   </si>
   <si>
+    <t>12:36</t>
+  </si>
+  <si>
     <t>POWERGRID</t>
   </si>
   <si>
@@ -506,12 +665,18 @@
     <t>12:43</t>
   </si>
   <si>
+    <t>11:03</t>
+  </si>
+  <si>
     <t>RAMCOCEM</t>
   </si>
   <si>
     <t>RBLBANK</t>
   </si>
   <si>
+    <t>11:10</t>
+  </si>
+  <si>
     <t>RECLTD</t>
   </si>
   <si>
@@ -530,9 +695,15 @@
     <t>14:30</t>
   </si>
   <si>
+    <t>10:47</t>
+  </si>
+  <si>
     <t>SBIN</t>
   </si>
   <si>
+    <t>13:59</t>
+  </si>
+  <si>
     <t>SHREECEM</t>
   </si>
   <si>
@@ -554,15 +725,24 @@
     <t>14:45</t>
   </si>
   <si>
+    <t>12:10</t>
+  </si>
+  <si>
     <t>SUNPHARMA</t>
   </si>
   <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>SUNTV</t>
   </si>
   <si>
     <t>13:23</t>
   </si>
   <si>
+    <t>13:22</t>
+  </si>
+  <si>
     <t>TATACHEM</t>
   </si>
   <si>
@@ -572,9 +752,15 @@
     <t>TATACONSUM</t>
   </si>
   <si>
+    <t>09:37</t>
+  </si>
+  <si>
     <t>TATAMOTORS</t>
   </si>
   <si>
+    <t>13:02</t>
+  </si>
+  <si>
     <t>TATASTEEL</t>
   </si>
   <si>
@@ -587,6 +773,9 @@
     <t>TECHM</t>
   </si>
   <si>
+    <t>14:58</t>
+  </si>
+  <si>
     <t>TITAN</t>
   </si>
   <si>
@@ -596,12 +785,18 @@
     <t>TORNTPOWER</t>
   </si>
   <si>
+    <t>11:14</t>
+  </si>
+  <si>
     <t>TVSMOTOR</t>
   </si>
   <si>
     <t>11:55</t>
   </si>
   <si>
+    <t>09:41</t>
+  </si>
+  <si>
     <t>UBL</t>
   </si>
   <si>
@@ -611,7 +806,7 @@
     <t>UJJIVAN</t>
   </si>
   <si>
-    <t>13:59</t>
+    <t>13:57</t>
   </si>
   <si>
     <t>ULTRACEMCO</t>
@@ -623,9 +818,6 @@
     <t>UPL</t>
   </si>
   <si>
-    <t>09:49</t>
-  </si>
-  <si>
     <t>VEDL</t>
   </si>
   <si>
@@ -642,6 +834,9 @@
   </si>
   <si>
     <t>12:55</t>
+  </si>
+  <si>
+    <t>12:45</t>
   </si>
 </sst>
 </file>
@@ -686,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -699,6 +894,10 @@
     <col min="5" max="5" width="14.3359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="30.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="30.0" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.13671875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="36.359375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -723,2926 +922,4462 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>134</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>147</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" t="s">
+        <v>151</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>112</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>119</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>155</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>157</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>159</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>162</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J70" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
+        <v>169</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>171</v>
+      </c>
+      <c r="K73" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>174</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>179</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>181</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>184</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>65</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>192</v>
+      </c>
+      <c r="K85" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>194</v>
+      </c>
+      <c r="J86" t="s">
+        <v>195</v>
+      </c>
+      <c r="K86" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s">
+        <v>199</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>201</v>
+      </c>
+      <c r="J89" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+      <c r="K90" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>181</v>
+      </c>
+      <c r="J91" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>206</v>
+      </c>
+      <c r="J92" t="s">
+        <v>207</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>210</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>112</v>
+      </c>
+      <c r="J95" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" t="s">
+        <v>217</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>65</v>
+      </c>
+      <c r="I98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>220</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F101" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J101" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>227</v>
+      </c>
+      <c r="J103" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E104" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>229</v>
+      </c>
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>233</v>
+      </c>
+      <c r="J107" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>236</v>
+      </c>
+      <c r="J108" t="s">
+        <v>237</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>239</v>
+      </c>
+      <c r="K109" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>242</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="F111" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>244</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>246</v>
+      </c>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>248</v>
+      </c>
+      <c r="J113" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F114" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>55</v>
+      </c>
+      <c r="J114" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="F115" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>251</v>
+      </c>
+      <c r="J115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>253</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>105</v>
+      </c>
+      <c r="J117" t="s">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>217</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>193</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>257</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="F120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>199</v>
+      </c>
+      <c r="J120" t="s">
+        <v>260</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="G121" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>233</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>264</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>91</v>
+      </c>
+      <c r="J123" t="s">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="G124" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>204</v>
+      </c>
+      <c r="J124" t="s">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>65</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>157</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>270</v>
+      </c>
+      <c r="J126" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>274</v>
+      </c>
+      <c r="J128" t="s">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
